--- a/SundayMorningSelenium/TestCases/Login.xlsx
+++ b/SundayMorningSelenium/TestCases/Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarow\git\repository4\sunday\SundayAfterNoonAutomation\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarow\git\SundayMorningClass\SundayMorningSelenium\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Test_id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>tc_005</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>browser should open</t>
+  </si>
+  <si>
+    <t>Home page should open</t>
+  </si>
+  <si>
+    <t>my account should clickable</t>
+  </si>
+  <si>
+    <t>put valid email</t>
+  </si>
+  <si>
+    <t>Button should clickable</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,17 +160,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -187,8 +325,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -206,11 +344,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" name="Column4" dataDxfId="1"/>
+    <tableColumn id="5" name="Column5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,7 +620,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,126 +634,142 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
